--- a/biology/Botanique/Grands-Jardins_de_Montbéliard/Grands-Jardins_de_Montbéliard.xlsx
+++ b/biology/Botanique/Grands-Jardins_de_Montbéliard/Grands-Jardins_de_Montbéliard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grands-Jardins_de_Montb%C3%A9liard</t>
+          <t>Grands-Jardins_de_Montbéliard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Grands-jardins de Montbéliard étaient à l'origine, sous le comte Frédéric, un vaste jardin botanique qui comprenait une variété impressionnante de plantes exotiques et arbres divers qui en faisait, à cette époque, le troisième d'Europe en rang d'ancienneté. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grands-Jardins_de_Montb%C3%A9liard</t>
+          <t>Grands-Jardins_de_Montbéliard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Bauhin en eut la charge toute sa vie (il décéda en 1612). Situé sur les hauteurs entre la Lizaine et le Charmontet, il s'étendait jusqu'à Bethoncourt. C'est dans ces jardins que fut cultivé la pomme de terre dès la fin du XVIe siècle. Jusque dans les années 1960, des jardins populaires étaient loués par la ville.
 Le Charmontet, domaine acheté en 1587 par le comte Frédéric, qui devint "Granges-Madame", pour en faire cadeau à son épouse. Cette ferme était un grand établissement agricole destiné à l'élevage du bétail. Aujourd'hui il s'appelle "Granges-la-dame".
